--- a/biology/Zoologie/Bulbul_verdâtre/Bulbul_verdâtre.xlsx
+++ b/biology/Zoologie/Bulbul_verdâtre/Bulbul_verdâtre.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Bulbul_verd%C3%A2tre</t>
+          <t>Bulbul_verdâtre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Eurillas virens
 Le Bulbul verdâtre (Eurillas virens) est une espèce de passereaux de la famille des Pycnonotidae.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bulbul_verd%C3%A2tre</t>
+          <t>Bulbul_verdâtre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Cet oiseau vit en Angola, au Bénin, au Burundi, au Cameroun, en République centrafricaine, en République du Congo, en République démocratique du Congo, en Côte d'Ivoire, au Gabon, en Gambie, au Ghana, en Guinée, en Guinée-Bissau, en Guinée équatoriale, au Kenya, au Libéria, au Malawi, au Mali, au Mozambique, au Nigeria, en Ouganda, au Rwanda, au Sénégal, au Sierra Leone, au Soudan, en Tanzanie, au Tchad, au Togo et en Zambie.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Bulbul_verd%C3%A2tre</t>
+          <t>Bulbul_verdâtre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Habitat</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Son habitat naturel est les forêts subtropicales ou tropicales en plaine et les savanes humides.
 </t>
@@ -556,7 +572,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Bulbul_verd%C3%A2tre</t>
+          <t>Bulbul_verdâtre</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -574,7 +590,9 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">D'après la classification de référence (version 5.2, 2015) du Congrès ornithologique international, cette espèce est constituée des cinq sous-espèces suivantes (ordre phylogénique) :
 Eurillas virens amadoni (Dickerman, 1997) ;
